--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Rarres2</t>
+  </si>
+  <si>
+    <t>Ccrl2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rarres2</t>
-  </si>
-  <si>
-    <t>Ccrl2</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H2">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I2">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J2">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.922400333333333</v>
+        <v>1.991145333333333</v>
       </c>
       <c r="N2">
-        <v>5.767201</v>
+        <v>5.973436</v>
       </c>
       <c r="O2">
-        <v>0.003737447139494048</v>
+        <v>0.003290261511723722</v>
       </c>
       <c r="P2">
-        <v>0.003737447139494047</v>
+        <v>0.003290261511723722</v>
       </c>
       <c r="Q2">
-        <v>0.7063469136765554</v>
+        <v>9.032860671846667</v>
       </c>
       <c r="R2">
-        <v>6.357122223088999</v>
+        <v>81.29574604662</v>
       </c>
       <c r="S2">
-        <v>2.575973241662999E-05</v>
+        <v>0.0002624868181614069</v>
       </c>
       <c r="T2">
-        <v>2.575973241662998E-05</v>
+        <v>0.0002624868181614069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H3">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I3">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J3">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.447319</v>
       </c>
       <c r="O3">
-        <v>0.0002898860499211555</v>
+        <v>0.0002463902667012326</v>
       </c>
       <c r="P3">
-        <v>0.0002898860499211555</v>
+        <v>0.0002463902667012326</v>
       </c>
       <c r="Q3">
-        <v>0.05478609035455555</v>
+        <v>0.6764231177616667</v>
       </c>
       <c r="R3">
-        <v>0.4930748131909999</v>
+        <v>6.087808059855001</v>
       </c>
       <c r="S3">
-        <v>1.997991355750304E-06</v>
+        <v>1.965624826534383E-05</v>
       </c>
       <c r="T3">
-        <v>1.997991355750304E-06</v>
+        <v>1.965624826534384E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H4">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I4">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J4">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.38050366666666</v>
+        <v>32.81245233333333</v>
       </c>
       <c r="N4">
-        <v>124.141511</v>
+        <v>98.43735700000001</v>
       </c>
       <c r="O4">
-        <v>0.08045017594833591</v>
+        <v>0.05422082818881926</v>
       </c>
       <c r="P4">
-        <v>0.08045017594833591</v>
+        <v>0.05422082818881926</v>
       </c>
       <c r="Q4">
-        <v>15.20442466874211</v>
+        <v>148.8541821969517</v>
       </c>
       <c r="R4">
-        <v>136.839822018679</v>
+        <v>1339.687639772565</v>
       </c>
       <c r="S4">
-        <v>0.0005544894490682964</v>
+        <v>0.00432556883963409</v>
       </c>
       <c r="T4">
-        <v>0.0005544894490682961</v>
+        <v>0.004325568839634091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H5">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I5">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J5">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.104487666666667</v>
+        <v>0.456847</v>
       </c>
       <c r="N5">
-        <v>3.313463</v>
+        <v>1.370541</v>
       </c>
       <c r="O5">
-        <v>0.002147296896912275</v>
+        <v>0.0007549153121485427</v>
       </c>
       <c r="P5">
-        <v>0.002147296896912275</v>
+        <v>0.0007549153121485427</v>
       </c>
       <c r="Q5">
-        <v>0.4058215352007777</v>
+        <v>2.072493268205</v>
       </c>
       <c r="R5">
-        <v>3.652393816807</v>
+        <v>18.652439413845</v>
       </c>
       <c r="S5">
-        <v>1.479988650515286E-05</v>
+        <v>6.022479294157547E-05</v>
       </c>
       <c r="T5">
-        <v>1.479988650515285E-05</v>
+        <v>6.022479294157548E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H6">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I6">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J6">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>403.6231896666666</v>
+        <v>545.6374716666667</v>
       </c>
       <c r="N6">
-        <v>1210.869569</v>
+        <v>1636.912415</v>
       </c>
       <c r="O6">
-        <v>0.7847066552664699</v>
+        <v>0.9016368329948173</v>
       </c>
       <c r="P6">
-        <v>0.7847066552664699</v>
+        <v>0.9016368329948173</v>
       </c>
       <c r="Q6">
-        <v>148.3031340381601</v>
+        <v>2475.292574777909</v>
       </c>
       <c r="R6">
-        <v>1334.728206343441</v>
+        <v>22277.63317300118</v>
       </c>
       <c r="S6">
-        <v>0.005408460029203088</v>
+        <v>0.07192977901198816</v>
       </c>
       <c r="T6">
-        <v>0.005408460029203086</v>
+        <v>0.07192977901198817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H7">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I7">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J7">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>66.18219133333334</v>
+        <v>24.11622233333334</v>
       </c>
       <c r="N7">
-        <v>198.546574</v>
+        <v>72.34866700000001</v>
       </c>
       <c r="O7">
-        <v>0.1286685386988668</v>
+        <v>0.03985077172579002</v>
       </c>
       <c r="P7">
-        <v>0.1286685386988668</v>
+        <v>0.03985077172579002</v>
       </c>
       <c r="Q7">
-        <v>24.31730050087622</v>
+        <v>109.4036043585017</v>
       </c>
       <c r="R7">
-        <v>218.855704507886</v>
+        <v>984.6324392265151</v>
       </c>
       <c r="S7">
-        <v>0.0008868264897440932</v>
+        <v>0.003179170480616045</v>
       </c>
       <c r="T7">
-        <v>0.000886826489744093</v>
+        <v>0.003179170480616045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>132.735371</v>
       </c>
       <c r="I8">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J8">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.922400333333333</v>
+        <v>1.991145333333333</v>
       </c>
       <c r="N8">
-        <v>5.767201</v>
+        <v>5.973436</v>
       </c>
       <c r="O8">
-        <v>0.003737447139494048</v>
+        <v>0.003290261511723722</v>
       </c>
       <c r="P8">
-        <v>0.003737447139494047</v>
+        <v>0.003290261511723722</v>
       </c>
       <c r="Q8">
-        <v>85.05684048517455</v>
+        <v>88.09847151163954</v>
       </c>
       <c r="R8">
-        <v>765.511564366571</v>
+        <v>792.8862436047558</v>
       </c>
       <c r="S8">
-        <v>0.00310193392039847</v>
+        <v>0.002560062455523963</v>
       </c>
       <c r="T8">
-        <v>0.003101933920398468</v>
+        <v>0.002560062455523964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>132.735371</v>
       </c>
       <c r="I9">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J9">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.447319</v>
       </c>
       <c r="O9">
-        <v>0.0002898860499211555</v>
+        <v>0.0002463902667012326</v>
       </c>
       <c r="P9">
-        <v>0.0002898860499211555</v>
+        <v>0.0002463902667012326</v>
       </c>
       <c r="Q9">
         <v>6.597228157816556</v>
@@ -1013,10 +1013,10 @@
         <v>59.375053420349</v>
       </c>
       <c r="S9">
-        <v>0.0002405940038050907</v>
+        <v>0.0001917095248936331</v>
       </c>
       <c r="T9">
-        <v>0.0002405940038050906</v>
+        <v>0.0001917095248936331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>132.735371</v>
       </c>
       <c r="I10">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J10">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.38050366666666</v>
+        <v>32.81245233333333</v>
       </c>
       <c r="N10">
-        <v>124.141511</v>
+        <v>98.43735700000001</v>
       </c>
       <c r="O10">
-        <v>0.08045017594833591</v>
+        <v>0.05422082818881926</v>
       </c>
       <c r="P10">
-        <v>0.08045017594833591</v>
+        <v>0.05422082818881926</v>
       </c>
       <c r="Q10">
-        <v>1830.88550212062</v>
+        <v>1451.791011294938</v>
       </c>
       <c r="R10">
-        <v>16477.96951908558</v>
+        <v>13066.11910165445</v>
       </c>
       <c r="S10">
-        <v>0.06677047737722677</v>
+        <v>0.0421877428462796</v>
       </c>
       <c r="T10">
-        <v>0.06677047737722674</v>
+        <v>0.04218774284627961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>132.735371</v>
       </c>
       <c r="I11">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J11">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.104487666666667</v>
+        <v>0.456847</v>
       </c>
       <c r="N11">
-        <v>3.313463</v>
+        <v>1.370541</v>
       </c>
       <c r="O11">
-        <v>0.002147296896912275</v>
+        <v>0.0007549153121485427</v>
       </c>
       <c r="P11">
-        <v>0.002147296896912275</v>
+        <v>0.0007549153121485427</v>
       </c>
       <c r="Q11">
-        <v>48.86819339997478</v>
+        <v>20.21325201174567</v>
       </c>
       <c r="R11">
-        <v>439.813740599773</v>
+        <v>181.919268105711</v>
       </c>
       <c r="S11">
-        <v>0.00178217184968675</v>
+        <v>0.0005873789487082925</v>
       </c>
       <c r="T11">
-        <v>0.001782171849686749</v>
+        <v>0.0005873789487082926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>132.735371</v>
       </c>
       <c r="I12">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J12">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>403.6231896666666</v>
+        <v>545.6374716666667</v>
       </c>
       <c r="N12">
-        <v>1210.869569</v>
+        <v>1636.912415</v>
       </c>
       <c r="O12">
-        <v>0.7847066552664699</v>
+        <v>0.9016368329948173</v>
       </c>
       <c r="P12">
-        <v>0.7847066552664699</v>
+        <v>0.9016368329948173</v>
       </c>
       <c r="Q12">
-        <v>17858.35794153612</v>
+        <v>24141.797411059</v>
       </c>
       <c r="R12">
-        <v>160725.2214738251</v>
+        <v>217276.1766995309</v>
       </c>
       <c r="S12">
-        <v>0.6512756169343455</v>
+        <v>0.7015389495463853</v>
       </c>
       <c r="T12">
-        <v>0.6512756169343453</v>
+        <v>0.7015389495463854</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>132.735371</v>
       </c>
       <c r="I13">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J13">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>66.18219133333334</v>
+        <v>24.11622233333334</v>
       </c>
       <c r="N13">
-        <v>198.546574</v>
+        <v>72.34866700000001</v>
       </c>
       <c r="O13">
-        <v>0.1286685386988668</v>
+        <v>0.03985077172579002</v>
       </c>
       <c r="P13">
-        <v>0.1286685386988668</v>
+        <v>0.03985077172579002</v>
       </c>
       <c r="Q13">
-        <v>2928.239240074328</v>
+        <v>1067.025239511162</v>
       </c>
       <c r="R13">
-        <v>26354.15316066895</v>
+        <v>9603.227155600456</v>
       </c>
       <c r="S13">
-        <v>0.1067898193022065</v>
+        <v>0.03100679509982288</v>
       </c>
       <c r="T13">
-        <v>0.1067898193022065</v>
+        <v>0.03100679509982288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H14">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I14">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J14">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.922400333333333</v>
+        <v>1.991145333333333</v>
       </c>
       <c r="N14">
-        <v>5.767201</v>
+        <v>5.973436</v>
       </c>
       <c r="O14">
-        <v>0.003737447139494048</v>
+        <v>0.003290261511723722</v>
       </c>
       <c r="P14">
-        <v>0.003737447139494047</v>
+        <v>0.003290261511723722</v>
       </c>
       <c r="Q14">
-        <v>0.7374237966651112</v>
+        <v>15.13154303188889</v>
       </c>
       <c r="R14">
-        <v>6.636814169986001</v>
+        <v>136.183887287</v>
       </c>
       <c r="S14">
-        <v>2.68930738026089E-05</v>
+        <v>0.0004397090499460705</v>
       </c>
       <c r="T14">
-        <v>2.689307380260889E-05</v>
+        <v>0.0004397090499460705</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H15">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I15">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J15">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.447319</v>
       </c>
       <c r="O15">
-        <v>0.0002898860499211555</v>
+        <v>0.0002463902667012326</v>
       </c>
       <c r="P15">
-        <v>0.0002898860499211555</v>
+        <v>0.0002463902667012326</v>
       </c>
       <c r="Q15">
-        <v>0.05719649363711111</v>
+        <v>1.133121154638889</v>
       </c>
       <c r="R15">
-        <v>0.514768442734</v>
+        <v>10.19809039175</v>
       </c>
       <c r="S15">
-        <v>2.085896239841339E-06</v>
+        <v>3.292748302866664E-05</v>
       </c>
       <c r="T15">
-        <v>2.085896239841339E-06</v>
+        <v>3.292748302866664E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H16">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I16">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J16">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.38050366666666</v>
+        <v>32.81245233333333</v>
       </c>
       <c r="N16">
-        <v>124.141511</v>
+        <v>98.43735700000001</v>
       </c>
       <c r="O16">
-        <v>0.08045017594833591</v>
+        <v>0.05422082818881926</v>
       </c>
       <c r="P16">
-        <v>0.08045017594833591</v>
+        <v>0.05422082818881926</v>
       </c>
       <c r="Q16">
-        <v>15.87336809751622</v>
+        <v>249.3554971361389</v>
       </c>
       <c r="R16">
-        <v>142.860312877646</v>
+        <v>2244.19947422525</v>
       </c>
       <c r="S16">
-        <v>0.0005788851155509204</v>
+        <v>0.007246046785413316</v>
       </c>
       <c r="T16">
-        <v>0.0005788851155509203</v>
+        <v>0.007246046785413318</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H17">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I17">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J17">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.104487666666667</v>
+        <v>0.456847</v>
       </c>
       <c r="N17">
-        <v>3.313463</v>
+        <v>1.370541</v>
       </c>
       <c r="O17">
-        <v>0.002147296896912275</v>
+        <v>0.0007549153121485427</v>
       </c>
       <c r="P17">
-        <v>0.002147296896912275</v>
+        <v>0.0007549153121485427</v>
       </c>
       <c r="Q17">
-        <v>0.4236763146575556</v>
+        <v>3.471770705916667</v>
       </c>
       <c r="R17">
-        <v>3.813086831918001</v>
+        <v>31.24593635325</v>
       </c>
       <c r="S17">
-        <v>1.545103161849464E-05</v>
+        <v>0.0001008865385051648</v>
       </c>
       <c r="T17">
-        <v>1.545103161849464E-05</v>
+        <v>0.0001008865385051648</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H18">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I18">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J18">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>403.6231896666666</v>
+        <v>545.6374716666667</v>
       </c>
       <c r="N18">
-        <v>1210.869569</v>
+        <v>1636.912415</v>
       </c>
       <c r="O18">
-        <v>0.7847066552664699</v>
+        <v>0.9016368329948173</v>
       </c>
       <c r="P18">
-        <v>0.7847066552664699</v>
+        <v>0.9016368329948173</v>
       </c>
       <c r="Q18">
-        <v>154.8279719812482</v>
+        <v>4146.526496141528</v>
       </c>
       <c r="R18">
-        <v>1393.451747831234</v>
+        <v>37318.73846527375</v>
       </c>
       <c r="S18">
-        <v>0.005646414037667532</v>
+        <v>0.1204943357298175</v>
       </c>
       <c r="T18">
-        <v>0.00564641403766753</v>
+        <v>0.1204943357298175</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H19">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I19">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J19">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.18219133333334</v>
+        <v>24.11622233333334</v>
       </c>
       <c r="N19">
-        <v>198.546574</v>
+        <v>72.34866700000001</v>
       </c>
       <c r="O19">
-        <v>0.1286685386988668</v>
+        <v>0.03985077172579002</v>
       </c>
       <c r="P19">
-        <v>0.1286685386988668</v>
+        <v>0.03985077172579002</v>
       </c>
       <c r="Q19">
-        <v>25.38717974524045</v>
+        <v>183.2692219369722</v>
       </c>
       <c r="R19">
-        <v>228.484617707164</v>
+        <v>1649.42299743275</v>
       </c>
       <c r="S19">
-        <v>0.000925843865652879</v>
+        <v>0.005325638984235309</v>
       </c>
       <c r="T19">
-        <v>0.0009258438656528788</v>
+        <v>0.00532563898423531</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H20">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I20">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J20">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.922400333333333</v>
+        <v>1.991145333333333</v>
       </c>
       <c r="N20">
-        <v>5.767201</v>
+        <v>5.973436</v>
       </c>
       <c r="O20">
-        <v>0.003737447139494048</v>
+        <v>0.003290261511723722</v>
       </c>
       <c r="P20">
-        <v>0.003737447139494047</v>
+        <v>0.003290261511723722</v>
       </c>
       <c r="Q20">
-        <v>15.982373072853</v>
+        <v>0.9636632352697777</v>
       </c>
       <c r="R20">
-        <v>143.841357655677</v>
+        <v>8.672969117428</v>
       </c>
       <c r="S20">
-        <v>0.0005828604128763399</v>
+        <v>2.800318809228114E-05</v>
       </c>
       <c r="T20">
-        <v>0.0005828604128763398</v>
+        <v>2.800318809228115E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H21">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I21">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J21">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.447319</v>
       </c>
       <c r="O21">
-        <v>0.0002898860499211555</v>
+        <v>0.0002463902667012326</v>
       </c>
       <c r="P21">
-        <v>0.0002898860499211555</v>
+        <v>0.0002463902667012326</v>
       </c>
       <c r="Q21">
-        <v>1.239634120707</v>
+        <v>0.07216363827077778</v>
       </c>
       <c r="R21">
-        <v>11.156707086363</v>
+        <v>0.6494727444370001</v>
       </c>
       <c r="S21">
-        <v>4.520815852047319E-05</v>
+        <v>2.097010513589015E-06</v>
       </c>
       <c r="T21">
-        <v>4.520815852047319E-05</v>
+        <v>2.097010513589015E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H22">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I22">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J22">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>41.38050366666666</v>
+        <v>32.81245233333333</v>
       </c>
       <c r="N22">
-        <v>124.141511</v>
+        <v>98.43735700000001</v>
       </c>
       <c r="O22">
-        <v>0.08045017594833591</v>
+        <v>0.05422082818881926</v>
       </c>
       <c r="P22">
-        <v>0.08045017594833591</v>
+        <v>0.05422082818881926</v>
       </c>
       <c r="Q22">
-        <v>344.0275347832829</v>
+        <v>15.88038474305678</v>
       </c>
       <c r="R22">
-        <v>3096.247813049547</v>
+        <v>142.923462687511</v>
       </c>
       <c r="S22">
-        <v>0.01254632400648992</v>
+        <v>0.0004614697174922487</v>
       </c>
       <c r="T22">
-        <v>0.01254632400648992</v>
+        <v>0.0004614697174922488</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H23">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I23">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J23">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.104487666666667</v>
+        <v>0.456847</v>
       </c>
       <c r="N23">
-        <v>3.313463</v>
+        <v>1.370541</v>
       </c>
       <c r="O23">
-        <v>0.002147296896912275</v>
+        <v>0.0007549153121485427</v>
       </c>
       <c r="P23">
-        <v>0.002147296896912275</v>
+        <v>0.0007549153121485427</v>
       </c>
       <c r="Q23">
-        <v>9.182444279139</v>
+        <v>0.2211022222603333</v>
       </c>
       <c r="R23">
-        <v>82.64199851225101</v>
+        <v>1.989920000343</v>
       </c>
       <c r="S23">
-        <v>0.0003348741291018774</v>
+        <v>6.425031993509781E-06</v>
       </c>
       <c r="T23">
-        <v>0.0003348741291018773</v>
+        <v>6.425031993509782E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H24">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I24">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J24">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>403.6231896666666</v>
+        <v>545.6374716666667</v>
       </c>
       <c r="N24">
-        <v>1210.869569</v>
+        <v>1636.912415</v>
       </c>
       <c r="O24">
-        <v>0.7847066552664699</v>
+        <v>0.9016368329948173</v>
       </c>
       <c r="P24">
-        <v>0.7847066552664699</v>
+        <v>0.9016368329948173</v>
       </c>
       <c r="Q24">
-        <v>3355.625925699956</v>
+        <v>264.0745315915606</v>
       </c>
       <c r="R24">
-        <v>30200.63333129961</v>
+        <v>2376.670784324045</v>
       </c>
       <c r="S24">
-        <v>0.1223761642652538</v>
+        <v>0.007673768706626332</v>
       </c>
       <c r="T24">
-        <v>0.1223761642652537</v>
+        <v>0.007673768706626334</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H25">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I25">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J25">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>66.18219133333334</v>
+        <v>24.11622233333334</v>
       </c>
       <c r="N25">
-        <v>198.546574</v>
+        <v>72.34866700000001</v>
       </c>
       <c r="O25">
-        <v>0.1286685386988668</v>
+        <v>0.03985077172579002</v>
       </c>
       <c r="P25">
-        <v>0.1286685386988668</v>
+        <v>0.03985077172579002</v>
       </c>
       <c r="Q25">
-        <v>550.222788837222</v>
+        <v>11.67163262629345</v>
       </c>
       <c r="R25">
-        <v>4952.005099534997</v>
+        <v>105.044693636641</v>
       </c>
       <c r="S25">
-        <v>0.02006604904126331</v>
+        <v>0.0003391671611157823</v>
       </c>
       <c r="T25">
-        <v>0.0200660490412633</v>
+        <v>0.0003391671611157824</v>
       </c>
     </row>
   </sheetData>
